--- a/BalanceSheet/OMC_bal.xlsx
+++ b/BalanceSheet/OMC_bal.xlsx
@@ -1774,19 +1774,19 @@
         </is>
       </c>
       <c r="B14" s="0" t="n">
-        <v>-1953800000.0</v>
+        <v>9466000000.0</v>
       </c>
       <c r="C14" s="0" t="n">
-        <v>2682100000.0</v>
+        <v>11513000000.0</v>
       </c>
       <c r="D14" s="0" t="n">
-        <v>546400000.0</v>
+        <v>8573000000.0</v>
       </c>
       <c r="E14" s="0" t="n">
-        <v>-1572200000.0</v>
+        <v>7920000000.0</v>
       </c>
       <c r="F14" s="0" t="n">
-        <v>-2084900000.0</v>
+        <v>9387000000.0</v>
       </c>
       <c r="G14" s="0" t="n">
         <v>11768400000.0</v>
